--- a/Cell_Markers.xlsx
+++ b/Cell_Markers.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Easton\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDA613A-556F-435F-801F-B99553789CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{649C47B8-AC68-4B4C-AAA1-598C3077C6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Cell Markers (1)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -561,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -701,37 +701,48 @@
         <v>25</v>
       </c>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -739,10 +750,10 @@
         <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -750,10 +761,10 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -761,10 +772,10 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -772,10 +783,10 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -783,10 +794,10 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -794,10 +805,10 @@
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -805,20 +816,9 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" t="s">
         <v>48</v>
       </c>
     </row>
